--- a/PESBiU2.0/results_graphs/FallDDDQN.xlsx
+++ b/PESBiU2.0/results_graphs/FallDDDQN.xlsx
@@ -5,20 +5,31 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vutbr-my.sharepoint.com/personal/xkolac15_vutbr_cz/Documents/DOKTORSKE STUDIUM/Dizertace/Srovnani Algoritmu/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_source\pesbiu2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_AD4D80C4656A4B7AC02E74B4CB9965105BDEDD91" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D55B61E-399F-445B-AC45-8B75F88AC3A3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB096D59-CD8B-4701-AC2B-6BD87F49BE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="7572" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -417,10 +428,13 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="13" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
@@ -478,10 +492,10 @@
         <v>8.4319869999999995</v>
       </c>
       <c r="I2" s="2">
-        <v>80.503681</v>
+        <v>805.03681000000006</v>
       </c>
       <c r="J2" s="2">
-        <v>80.483393000000007</v>
+        <v>804.83393000000001</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -510,10 +524,10 @@
         <v>9.0322359999999993</v>
       </c>
       <c r="I3" s="2">
-        <v>79.397416000000007</v>
+        <v>793.9741600000001</v>
       </c>
       <c r="J3" s="2">
-        <v>79.374267000000003</v>
+        <v>793.74267000000009</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -542,10 +556,10 @@
         <v>8.7782040000000006</v>
       </c>
       <c r="I4" s="2">
-        <v>72.506519999999995</v>
+        <v>725.0652</v>
       </c>
       <c r="J4" s="2">
-        <v>72.348618999999999</v>
+        <v>723.48618999999997</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -574,10 +588,10 @@
         <v>8.3416420000000002</v>
       </c>
       <c r="I5" s="2">
-        <v>75.053353000000001</v>
+        <v>750.53353000000004</v>
       </c>
       <c r="J5" s="2">
-        <v>74.859521999999998</v>
+        <v>748.59521999999993</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -606,10 +620,10 @@
         <v>8.4467339999999993</v>
       </c>
       <c r="I6" s="2">
-        <v>79.373298000000005</v>
+        <v>793.73298</v>
       </c>
       <c r="J6" s="2">
-        <v>79.162379999999999</v>
+        <v>791.62379999999996</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -638,10 +652,10 @@
         <v>8.3709439999999997</v>
       </c>
       <c r="I7" s="2">
-        <v>65.954669999999993</v>
+        <v>659.54669999999987</v>
       </c>
       <c r="J7" s="2">
-        <v>65.896028999999999</v>
+        <v>658.96028999999999</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -670,10 +684,10 @@
         <v>8.2855319999999999</v>
       </c>
       <c r="I8" s="2">
-        <v>76.826687000000007</v>
+        <v>768.26687000000004</v>
       </c>
       <c r="J8" s="2">
-        <v>75.496992000000006</v>
+        <v>754.96992</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -702,10 +716,10 @@
         <v>7.9639499999999996</v>
       </c>
       <c r="I9" s="2">
-        <v>118.3471</v>
+        <v>1183.471</v>
       </c>
       <c r="J9" s="2">
-        <v>118.194425</v>
+        <v>1181.94425</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -734,10 +748,10 @@
         <v>7.6412000000000004</v>
       </c>
       <c r="I10" s="2">
-        <v>120.275813</v>
+        <v>1202.7581299999999</v>
       </c>
       <c r="J10" s="2">
-        <v>120.232293</v>
+        <v>1202.32293</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -766,10 +780,10 @@
         <v>7.8144239999999998</v>
       </c>
       <c r="I11" s="2">
-        <v>114.569087</v>
+        <v>1145.6908699999999</v>
       </c>
       <c r="J11" s="2">
-        <v>114.112374</v>
+        <v>1141.12374</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -798,10 +812,10 @@
         <v>7.7012900000000002</v>
       </c>
       <c r="I12" s="2">
-        <v>116.359156</v>
+        <v>1163.5915600000001</v>
       </c>
       <c r="J12" s="2">
-        <v>116.015738</v>
+        <v>1160.1573800000001</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -830,10 +844,10 @@
         <v>7.4392370000000003</v>
       </c>
       <c r="I13" s="2">
-        <v>99.059763000000004</v>
+        <v>990.59762999999998</v>
       </c>
       <c r="J13" s="2">
-        <v>99.036817999999997</v>
+        <v>990.36817999999994</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -862,10 +876,10 @@
         <v>7.297199</v>
       </c>
       <c r="I14" s="2">
-        <v>98.377681999999993</v>
+        <v>983.77681999999993</v>
       </c>
       <c r="J14" s="2">
-        <v>98.240468000000007</v>
+        <v>982.4046800000001</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -894,10 +908,10 @@
         <v>7.0416619999999996</v>
       </c>
       <c r="I15" s="2">
-        <v>93.237961999999996</v>
+        <v>932.37961999999993</v>
       </c>
       <c r="J15" s="2">
-        <v>93.077560000000005</v>
+        <v>930.77560000000005</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -926,10 +940,10 @@
         <v>8.0046909999999993</v>
       </c>
       <c r="I16" s="2">
-        <v>133.22377499999999</v>
+        <v>1332.2377499999998</v>
       </c>
       <c r="J16" s="2">
-        <v>132.96908300000001</v>
+        <v>1329.69083</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -958,10 +972,10 @@
         <v>7.480391</v>
       </c>
       <c r="I17" s="2">
-        <v>126.433211</v>
+        <v>1264.3321100000001</v>
       </c>
       <c r="J17" s="2">
-        <v>126.306135</v>
+        <v>1263.0613499999999</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -990,10 +1004,10 @@
         <v>8.0028199999999998</v>
       </c>
       <c r="I18" s="2">
-        <v>125.15168799999999</v>
+        <v>1251.5168799999999</v>
       </c>
       <c r="J18" s="2">
-        <v>124.657484</v>
+        <v>1246.57484</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1022,10 +1036,10 @@
         <v>7.6476940000000004</v>
       </c>
       <c r="I19" s="2">
-        <v>114.692522</v>
+        <v>1146.9252200000001</v>
       </c>
       <c r="J19" s="2">
-        <v>114.692522</v>
+        <v>1146.9252200000001</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1054,10 +1068,10 @@
         <v>7.1005200000000004</v>
       </c>
       <c r="I20" s="2">
-        <v>113.479032</v>
+        <v>1134.7903200000001</v>
       </c>
       <c r="J20" s="2">
-        <v>113.417484</v>
+        <v>1134.1748400000001</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1086,10 +1100,10 @@
         <v>7.5680259999999997</v>
       </c>
       <c r="I21" s="2">
-        <v>110.58004</v>
+        <v>1105.8004000000001</v>
       </c>
       <c r="J21" s="2">
-        <v>110.518367</v>
+        <v>1105.1836699999999</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1118,10 +1132,10 @@
         <v>7.2237330000000002</v>
       </c>
       <c r="I22" s="2">
-        <v>115.378018</v>
+        <v>1153.78018</v>
       </c>
       <c r="J22" s="2">
-        <v>115.16963</v>
+        <v>1151.6963000000001</v>
       </c>
     </row>
   </sheetData>
